--- a/Project.xlsx
+++ b/Project.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\project_API\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,9 +35,6 @@
     <t>About</t>
   </si>
   <si>
-    <t>Phone number</t>
-  </si>
-  <si>
     <t>Em Sherif</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>With its old black and white portraits, traditional ceramic water fountain, huge olive tree and sounds of Fairouz in the background, Café Beirut is one of those restaurants that transports us directly to Lebanon. In fact, its Burj Khalifa views are probably the only thing that reminds us that we’re in Dubai. Authenticity is the name of the game here, with a spread of classic Lebanese dishes prepared authentically and in tribute to Beirut and its people. Its all-day breakfasts are the perfect way to start the day, while its hearty grills are the perfect way to finish it.</t>
+  </si>
+  <si>
+    <t>Phone</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,64 +483,64 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Project.xlsx
+++ b/Project.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -84,6 +84,18 @@
   </si>
   <si>
     <t>Phone</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>emsheriflogo.jpg</t>
+  </si>
+  <si>
+    <t>cafebeirutlogo.jfif</t>
+  </si>
+  <si>
+    <t>safadilogo.png</t>
   </si>
 </sst>
 </file>
@@ -460,92 +472,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" customWidth="1"/>
-    <col min="3" max="3" width="42.77734375" customWidth="1"/>
-    <col min="4" max="4" width="48.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="44.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="4" max="4" width="42.77734375" customWidth="1"/>
+    <col min="5" max="5" width="48.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Project.xlsx
+++ b/Project.xlsx
@@ -92,10 +92,10 @@
     <t>emsheriflogo.jpg</t>
   </si>
   <si>
-    <t>cafebeirutlogo.jfif</t>
-  </si>
-  <si>
-    <t>safadilogo.png</t>
+    <t>safadilogo.jfif</t>
+  </si>
+  <si>
+    <t>cafebeirutlogo.png</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -530,7 +530,7 @@
     </row>
     <row r="3" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="4" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>

--- a/Project.xlsx
+++ b/Project.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Em Sherif</t>
   </si>
   <si>
-    <t>downtown dubai</t>
-  </si>
-  <si>
     <t>https://www.instagram.com/emsherifrestaurant/</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>600 500 601</t>
   </si>
   <si>
-    <t>Unlicensed. The Pointe, Palm Jumeirah</t>
-  </si>
-  <si>
     <t>https://www.instagram.com/alsafadirestaurants/</t>
   </si>
   <si>
@@ -68,9 +62,6 @@
     <t>https://www.instagram.com/cafebeirutdxb/</t>
   </si>
   <si>
-    <t>Licensed. Al Murooj Complex Downtown Dubai,</t>
-  </si>
-  <si>
     <t>04 422 5211</t>
   </si>
   <si>
@@ -96,6 +87,27 @@
   </si>
   <si>
     <t>cafebeirutlogo.png</t>
+  </si>
+  <si>
+    <t>Sheikh Mohammed bin Rashid Blvd - Downtown Dubai - Dubai - United Arab Emirates</t>
+  </si>
+  <si>
+    <t>The restaurant is located next to Dusit Thani hotel in sheikh zayed road</t>
+  </si>
+  <si>
+    <t>Al Murooj Complex - opp. Dubai Mall - Downtown Dubai - Dubai - United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Emsheriflebanon/</t>
+  </si>
+  <si>
+    <t>Al Safadi Restaurants - Home | Facebook</t>
+  </si>
+  <si>
+    <t>Café Beirut by the Sea | Dubai | Facebook</t>
   </si>
 </sst>
 </file>
@@ -183,7 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -191,6 +203,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -472,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -486,11 +499,12 @@
     <col min="4" max="4" width="42.77734375" customWidth="1"/>
     <col min="5" max="5" width="48.33203125" customWidth="1"/>
     <col min="6" max="6" width="14.21875" customWidth="1"/>
+    <col min="7" max="7" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -499,80 +513,95 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="4" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>15</v>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3" display="https://www.facebook.com/alsafadirestaurants/"/>
+    <hyperlink ref="G4" r:id="rId4" display="https://www.facebook.com/cafebeirutbythesea/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>